--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099B9395-0F01-A54D-8284-9C66C2EB5B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98DC4CA-2D77-0441-A6A6-A7E27926129B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="159">
   <si>
     <t>Activity</t>
   </si>
@@ -511,10 +511,10 @@
     <t>carbon dioxide, captured from atmosphere, with a solvent-based direct air capture system, 1MtCO2</t>
   </si>
   <si>
-    <t>hydrogen production, gaseous, 200 bar, from PEM electrolysis, from grid electricity</t>
-  </si>
-  <si>
-    <t>hydrogen, gaseous, 200 bar</t>
+    <t>hydrogen production, gaseous, 30 bar, from PEM electrolysis, from grid electricity</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, 30 bar</t>
   </si>
 </sst>
 </file>
@@ -1949,7 +1949,7 @@
   <dimension ref="A1:K366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G367" sqref="G367"/>
+      <selection activeCell="H347" sqref="H347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7122,9 +7122,6 @@
       </c>
       <c r="G347" s="29" t="s">
         <v>158</v>
-      </c>
-      <c r="H347" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98DC4CA-2D77-0441-A6A6-A7E27926129B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B64C49-E8DD-2641-B179-6D710AA59333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -703,7 +703,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1945,11 +1945,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H347" sqref="H347"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="B346" sqref="B346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1968,8 +1967,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1977,7 +1975,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1985,7 +1983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1993,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2001,7 +1999,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2009,7 +2007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2017,12 +2015,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2057,7 +2055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>132</v>
       </c>
@@ -2083,7 +2081,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -2103,7 +2101,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2123,7 +2121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2143,7 +2141,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2163,7 +2161,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -2183,7 +2181,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -2203,7 +2201,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -2223,7 +2221,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -2243,7 +2241,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -2263,7 +2261,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -2283,7 +2281,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -2303,7 +2301,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>153</v>
       </c>
@@ -2321,10 +2319,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2332,7 +2330,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2340,7 +2338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2348,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -2356,7 +2354,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2364,7 +2362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -2372,12 +2370,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2412,7 +2410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>133</v>
       </c>
@@ -2438,7 +2436,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>125</v>
       </c>
@@ -2458,7 +2456,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2478,7 +2476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -2498,7 +2496,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -2518,7 +2516,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -2538,7 +2536,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -2558,7 +2556,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -2578,7 +2576,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2598,7 +2596,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -2618,7 +2616,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -2638,7 +2636,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -2658,7 +2656,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>153</v>
       </c>
@@ -2676,10 +2674,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -2687,7 +2685,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -2695,7 +2693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -2703,7 +2701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -2711,7 +2709,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2719,7 +2717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2727,12 +2725,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2767,7 +2765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>134</v>
       </c>
@@ -2793,7 +2791,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>126</v>
       </c>
@@ -2813,7 +2811,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -2833,7 +2831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -2853,7 +2851,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -2873,7 +2871,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2893,7 +2891,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2913,7 +2911,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2933,7 +2931,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -2953,7 +2951,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2973,7 +2971,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -2993,7 +2991,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3013,7 +3011,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>153</v>
       </c>
@@ -3031,10 +3029,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B68" s="5"/>
     </row>
-    <row r="69" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -3042,7 +3040,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -3050,7 +3048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -3058,7 +3056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -3066,7 +3064,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -3074,7 +3072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -3082,12 +3080,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -3122,7 +3120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>135</v>
       </c>
@@ -3148,7 +3146,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>127</v>
       </c>
@@ -3168,7 +3166,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>34</v>
       </c>
@@ -3188,7 +3186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>54</v>
       </c>
@@ -3208,7 +3206,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>56</v>
       </c>
@@ -3228,7 +3226,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>58</v>
       </c>
@@ -3248,7 +3246,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>60</v>
       </c>
@@ -3268,7 +3266,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>62</v>
       </c>
@@ -3288,7 +3286,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>47</v>
       </c>
@@ -3308,7 +3306,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>64</v>
       </c>
@@ -3328,7 +3326,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>67</v>
       </c>
@@ -3348,7 +3346,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>72</v>
       </c>
@@ -3368,7 +3366,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>153</v>
       </c>
@@ -3386,13 +3384,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B90" s="5"/>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B91" s="5"/>
     </row>
-    <row r="92" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -3400,7 +3398,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -3408,7 +3406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -3416,7 +3414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -3424,7 +3422,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -3432,7 +3430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -3440,12 +3438,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -3480,7 +3478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>136</v>
       </c>
@@ -3506,7 +3504,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>128</v>
       </c>
@@ -3526,7 +3524,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>34</v>
       </c>
@@ -3546,7 +3544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>54</v>
       </c>
@@ -3566,7 +3564,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>56</v>
       </c>
@@ -3586,7 +3584,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>58</v>
       </c>
@@ -3606,7 +3604,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>60</v>
       </c>
@@ -3626,7 +3624,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>62</v>
       </c>
@@ -3646,7 +3644,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>47</v>
       </c>
@@ -3666,7 +3664,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>64</v>
       </c>
@@ -3686,7 +3684,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>67</v>
       </c>
@@ -3706,7 +3704,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>72</v>
       </c>
@@ -3726,7 +3724,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>153</v>
       </c>
@@ -3744,10 +3742,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B113" s="5"/>
     </row>
-    <row r="114" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -3755,7 +3753,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -3763,7 +3761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -3771,7 +3769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -3779,7 +3777,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -3787,7 +3785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -3795,12 +3793,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -3835,7 +3833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>137</v>
       </c>
@@ -3861,7 +3859,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -3881,7 +3879,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>34</v>
       </c>
@@ -3901,7 +3899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>54</v>
       </c>
@@ -3921,7 +3919,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>56</v>
       </c>
@@ -3941,7 +3939,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>58</v>
       </c>
@@ -3961,7 +3959,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>60</v>
       </c>
@@ -3981,7 +3979,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>62</v>
       </c>
@@ -4001,7 +3999,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>47</v>
       </c>
@@ -4021,7 +4019,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>64</v>
       </c>
@@ -4041,7 +4039,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>67</v>
       </c>
@@ -4061,7 +4059,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>72</v>
       </c>
@@ -4081,7 +4079,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>153</v>
       </c>
@@ -4099,10 +4097,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B135" s="5"/>
     </row>
-    <row r="136" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
@@ -4110,7 +4108,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -4118,7 +4116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -4126,7 +4124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -4134,7 +4132,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -4142,7 +4140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -4150,12 +4148,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -4190,7 +4188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>138</v>
       </c>
@@ -4216,7 +4214,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>130</v>
       </c>
@@ -4236,7 +4234,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>34</v>
       </c>
@@ -4256,7 +4254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>54</v>
       </c>
@@ -4276,7 +4274,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>56</v>
       </c>
@@ -4296,7 +4294,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>58</v>
       </c>
@@ -4316,7 +4314,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>60</v>
       </c>
@@ -4336,7 +4334,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>62</v>
       </c>
@@ -4356,7 +4354,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>47</v>
       </c>
@@ -4376,7 +4374,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>64</v>
       </c>
@@ -4396,7 +4394,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>67</v>
       </c>
@@ -4416,7 +4414,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>72</v>
       </c>
@@ -4436,7 +4434,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -4454,10 +4452,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B157" s="5"/>
     </row>
-    <row r="158" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>0</v>
       </c>
@@ -4465,7 +4463,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -4473,7 +4471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -4481,7 +4479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -4489,7 +4487,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -4497,7 +4495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -4505,12 +4503,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -4545,7 +4543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>139</v>
       </c>
@@ -4571,7 +4569,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>131</v>
       </c>
@@ -4591,7 +4589,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>34</v>
       </c>
@@ -4611,7 +4609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>54</v>
       </c>
@@ -4631,7 +4629,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>56</v>
       </c>
@@ -4651,7 +4649,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>58</v>
       </c>
@@ -4671,7 +4669,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>60</v>
       </c>
@@ -4691,7 +4689,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>62</v>
       </c>
@@ -4711,7 +4709,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>47</v>
       </c>
@@ -4731,7 +4729,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>64</v>
       </c>
@@ -4751,7 +4749,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>67</v>
       </c>
@@ -4771,7 +4769,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>72</v>
       </c>
@@ -4791,7 +4789,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>153</v>
       </c>
@@ -4809,13 +4807,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B179" s="5"/>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B180" s="5"/>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>0</v>
       </c>
@@ -4823,7 +4821,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1</v>
       </c>
@@ -4831,7 +4829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>2</v>
       </c>
@@ -4839,7 +4837,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -4847,7 +4845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -4855,7 +4853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -4863,7 +4861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>28</v>
       </c>
@@ -4871,7 +4869,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>22</v>
       </c>
@@ -4879,12 +4877,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>9</v>
       </c>
@@ -4913,7 +4911,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>129</v>
       </c>
@@ -4937,7 +4935,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>121</v>
       </c>
@@ -4960,7 +4958,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>153</v>
       </c>
@@ -4983,7 +4981,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>34</v>
       </c>
@@ -5034,10 +5032,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B196" s="4"/>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>0</v>
       </c>
@@ -5045,7 +5043,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1</v>
       </c>
@@ -5053,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>2</v>
       </c>
@@ -5061,7 +5059,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -5069,7 +5067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -5077,7 +5075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -5085,7 +5083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>28</v>
       </c>
@@ -5093,7 +5091,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -5101,12 +5099,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>9</v>
       </c>
@@ -5135,7 +5133,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>125</v>
       </c>
@@ -5159,7 +5157,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>121</v>
       </c>
@@ -5182,7 +5180,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>155</v>
       </c>
@@ -5205,7 +5203,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>34</v>
       </c>
@@ -5256,10 +5254,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B212" s="4"/>
     </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>0</v>
       </c>
@@ -5267,7 +5265,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1</v>
       </c>
@@ -5275,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>2</v>
       </c>
@@ -5283,7 +5281,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -5291,7 +5289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -5299,7 +5297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -5307,7 +5305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>28</v>
       </c>
@@ -5315,7 +5313,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>22</v>
       </c>
@@ -5323,12 +5321,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>9</v>
       </c>
@@ -5357,7 +5355,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>130</v>
       </c>
@@ -5381,7 +5379,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>121</v>
       </c>
@@ -5404,7 +5402,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>153</v>
       </c>
@@ -5427,7 +5425,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>34</v>
       </c>
@@ -5478,10 +5476,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B228" s="4"/>
     </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>0</v>
       </c>
@@ -5489,7 +5487,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1</v>
       </c>
@@ -5497,7 +5495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>2</v>
       </c>
@@ -5505,7 +5503,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -5513,7 +5511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -5521,7 +5519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>11</v>
       </c>
@@ -5529,7 +5527,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>28</v>
       </c>
@@ -5537,7 +5535,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>22</v>
       </c>
@@ -5545,12 +5543,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>9</v>
       </c>
@@ -5579,7 +5577,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>126</v>
       </c>
@@ -5603,7 +5601,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>121</v>
       </c>
@@ -5626,7 +5624,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>153</v>
       </c>
@@ -5649,7 +5647,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>34</v>
       </c>
@@ -5700,13 +5698,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B244" s="4"/>
     </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B245" s="4"/>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>0</v>
       </c>
@@ -5714,7 +5712,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1</v>
       </c>
@@ -5722,7 +5720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>2</v>
       </c>
@@ -5730,7 +5728,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -5738,7 +5736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -5746,7 +5744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>11</v>
       </c>
@@ -5754,7 +5752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>28</v>
       </c>
@@ -5762,7 +5760,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>22</v>
       </c>
@@ -5770,12 +5768,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>9</v>
       </c>
@@ -5804,7 +5802,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>131</v>
       </c>
@@ -5828,7 +5826,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>121</v>
       </c>
@@ -5851,7 +5849,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>153</v>
       </c>
@@ -5874,7 +5872,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>34</v>
       </c>
@@ -5925,10 +5923,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B261" s="4"/>
     </row>
-    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>0</v>
       </c>
@@ -5936,7 +5934,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -5944,7 +5942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>2</v>
       </c>
@@ -5952,7 +5950,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -5960,7 +5958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -5968,7 +5966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>11</v>
       </c>
@@ -5976,7 +5974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>28</v>
       </c>
@@ -5984,7 +5982,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>22</v>
       </c>
@@ -5992,12 +5990,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>9</v>
       </c>
@@ -6026,7 +6024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>127</v>
       </c>
@@ -6050,7 +6048,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>121</v>
       </c>
@@ -6073,7 +6071,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>153</v>
       </c>
@@ -6096,7 +6094,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>34</v>
       </c>
@@ -6147,13 +6145,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B277" s="4"/>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B278" s="4"/>
     </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>0</v>
       </c>
@@ -6161,7 +6159,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1</v>
       </c>
@@ -6169,7 +6167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>2</v>
       </c>
@@ -6177,7 +6175,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -6185,7 +6183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>6</v>
       </c>
@@ -6193,7 +6191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>11</v>
       </c>
@@ -6201,7 +6199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>28</v>
       </c>
@@ -6209,7 +6207,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>22</v>
       </c>
@@ -6217,12 +6215,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>9</v>
       </c>
@@ -6251,7 +6249,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>128</v>
       </c>
@@ -6275,7 +6273,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>121</v>
       </c>
@@ -6298,7 +6296,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>153</v>
       </c>
@@ -6321,7 +6319,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>34</v>
       </c>
@@ -6372,10 +6370,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B294" s="4"/>
     </row>
-    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>0</v>
       </c>
@@ -6383,7 +6381,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1</v>
       </c>
@@ -6391,7 +6389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>2</v>
       </c>
@@ -6399,7 +6397,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>4</v>
       </c>
@@ -6407,7 +6405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>6</v>
       </c>
@@ -6415,7 +6413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>11</v>
       </c>
@@ -6423,7 +6421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>28</v>
       </c>
@@ -6431,7 +6429,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>22</v>
       </c>
@@ -6439,12 +6437,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>9</v>
       </c>
@@ -6473,7 +6471,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>124</v>
       </c>
@@ -6497,7 +6495,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>121</v>
       </c>
@@ -6520,7 +6518,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>155</v>
       </c>
@@ -6543,7 +6541,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>34</v>
       </c>
@@ -6594,10 +6592,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B310" s="4"/>
     </row>
-    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>0</v>
       </c>
@@ -6605,7 +6603,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1</v>
       </c>
@@ -6613,7 +6611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>28</v>
       </c>
@@ -6621,7 +6619,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>2</v>
       </c>
@@ -6629,7 +6627,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>4</v>
       </c>
@@ -6637,7 +6635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>6</v>
       </c>
@@ -6645,7 +6643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>22</v>
       </c>
@@ -6653,7 +6651,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>11</v>
       </c>
@@ -6661,7 +6659,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>28</v>
       </c>
@@ -6669,7 +6667,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>22</v>
       </c>
@@ -6677,12 +6675,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>9</v>
       </c>
@@ -6708,7 +6706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>117</v>
       </c>
@@ -6731,7 +6729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>121</v>
       </c>
@@ -6754,7 +6752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>30</v>
       </c>
@@ -6777,7 +6775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>153</v>
       </c>
@@ -6797,7 +6795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>33</v>
       </c>
@@ -6817,7 +6815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>116</v>
       </c>
@@ -6840,8 +6838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="330" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>0</v>
       </c>
@@ -6849,7 +6846,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1</v>
       </c>
@@ -6857,7 +6854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>2</v>
       </c>
@@ -6865,7 +6862,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>4</v>
       </c>
@@ -6873,7 +6870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>6</v>
       </c>
@@ -6881,7 +6878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>11</v>
       </c>
@@ -6889,7 +6886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>28</v>
       </c>
@@ -6897,7 +6894,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>22</v>
       </c>
@@ -6905,12 +6902,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>9</v>
       </c>
@@ -6936,7 +6933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>116</v>
       </c>
@@ -6960,7 +6957,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>117</v>
       </c>
@@ -6983,7 +6980,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>47</v>
       </c>
@@ -7007,7 +7004,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>34</v>
       </c>
@@ -7031,7 +7028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>35</v>
       </c>
@@ -7055,7 +7052,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>37</v>
       </c>
@@ -7079,7 +7076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>39</v>
       </c>
@@ -7124,7 +7121,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>156</v>
       </c>
@@ -7148,7 +7145,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>72</v>
       </c>
@@ -7172,8 +7169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="351" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>0</v>
       </c>
@@ -7181,7 +7177,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1</v>
       </c>
@@ -7189,7 +7185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>2</v>
       </c>
@@ -7197,7 +7193,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>4</v>
       </c>
@@ -7205,7 +7201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>6</v>
       </c>
@@ -7213,7 +7209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>22</v>
       </c>
@@ -7221,7 +7217,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>11</v>
       </c>
@@ -7229,12 +7225,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>9</v>
       </c>
@@ -7260,7 +7256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>140</v>
       </c>
@@ -7283,7 +7279,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>143</v>
       </c>
@@ -7306,7 +7302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>145</v>
       </c>
@@ -7329,7 +7325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>147</v>
       </c>
@@ -7353,7 +7349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>149</v>
       </c>
@@ -7376,7 +7372,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>151</v>
       </c>
@@ -7399,7 +7395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>116</v>
       </c>
@@ -7423,13 +7419,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K366" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="hydrogen production, gaseous, 25 bar, from electrolysis"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K366" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="B302" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="B286" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
